--- a/Df_UB_Table.xlsx
+++ b/Df_UB_Table.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Santos\Documents\DataSBAMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569170E6-9819-4D6B-A2A3-B33C9E8C89EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D8DB2BE-9FC8-4130-9CDC-5C84A13FBB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{23011367-00D8-4EF8-9D19-83B71E29CB98}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Df_UB_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Month of Disbursement</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Total Loan Amount</t>
   </si>
@@ -50,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +63,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,12 +108,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -458,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCCFA45-0291-47D0-8BF7-451DFFE32AD5}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,427 +458,411 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
-        <v>6</v>
+      <c r="A2" s="3">
+        <v>64982000</v>
+      </c>
+      <c r="B2" s="4">
+        <v>202101</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>9.3100000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>64982000</v>
-      </c>
-      <c r="B3" s="6">
-        <v>202101</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>7.7299999999999994E-2</v>
-      </c>
-      <c r="F3" s="7">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="G3" s="7">
-        <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="H3" s="7">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="I3" s="7">
-        <v>9.3100000000000002E-2</v>
+      <c r="A3" s="3">
+        <v>77536000</v>
+      </c>
+      <c r="B3" s="4">
+        <v>202102</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9.35E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.1113</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>77536000</v>
-      </c>
-      <c r="B4" s="6">
-        <v>202102</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>9.35E-2</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="A4" s="3">
+        <v>112215000</v>
+      </c>
+      <c r="B4" s="4">
+        <v>202103</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.32E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>8.3199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>111911000</v>
+      </c>
+      <c r="B5" s="4">
+        <v>202104</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.1472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>218686227</v>
+      </c>
+      <c r="B6" s="4">
+        <v>202105</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.78E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5.6800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>229378077</v>
+      </c>
+      <c r="B7" s="4">
+        <v>202106</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3.85E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.1047</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>7.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>368390600</v>
+      </c>
+      <c r="B8" s="4">
+        <v>202107</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9.64E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="I8" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F4" s="7">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="G4" s="7">
-        <v>9.4399999999999998E-2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.11360000000000001</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.1113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>112215000</v>
-      </c>
-      <c r="B5" s="6">
-        <v>202103</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3.32E-2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="E5" s="7">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>6.7599999999999993E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>9.5299999999999996E-2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8.3199999999999996E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>111911000</v>
-      </c>
-      <c r="B6" s="6">
-        <v>202104</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>9.7799999999999998E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.19020000000000001</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.13339999999999999</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.1472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>218686227</v>
-      </c>
-      <c r="B7" s="6">
-        <v>202105</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1.35E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1.78E-2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5.6800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>229378077</v>
-      </c>
-      <c r="B8" s="6">
-        <v>202106</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3.85E-2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.1047</v>
-      </c>
-      <c r="F8" s="7">
-        <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>8.1199999999999994E-2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7.7499999999999999E-2</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>368390600</v>
-      </c>
-      <c r="B9" s="6">
-        <v>202107</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="A9" s="3">
+        <v>312598600</v>
+      </c>
+      <c r="B9" s="4">
+        <v>202108</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>149148100</v>
+      </c>
+      <c r="B10" s="4">
+        <v>202109</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="H10" s="5">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="E9" s="7">
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="F9" s="7">
-        <v>9.2799999999999994E-2</v>
-      </c>
-      <c r="G9" s="7">
-        <v>9.64E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>9.7699999999999995E-2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>312598600</v>
-      </c>
-      <c r="B10" s="6">
-        <v>202108</v>
-      </c>
-      <c r="C10" s="7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>6.1400000000000003E-2</v>
-      </c>
-      <c r="F10" s="7">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>9.6199999999999994E-2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8.9700000000000002E-2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9.7500000000000003E-2</v>
+      <c r="I10" s="5">
+        <v>7.51E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>149148100</v>
-      </c>
-      <c r="B11" s="6">
-        <v>202109</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="F11" s="7">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>7.2400000000000006E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5.7700000000000001E-2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7.51E-2</v>
-      </c>
+      <c r="A11" s="3">
+        <v>245151600</v>
+      </c>
+      <c r="B11" s="4">
+        <v>202110</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>245151600</v>
-      </c>
-      <c r="B12" s="6">
-        <v>202110</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1.84E-2</v>
-      </c>
-      <c r="E12" s="7">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="F12" s="7">
-        <v>6.3100000000000003E-2</v>
-      </c>
-      <c r="G12" s="7">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="A12" s="3">
+        <v>242807900</v>
+      </c>
+      <c r="B12" s="4">
+        <v>202111</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6.08E-2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>242807900</v>
-      </c>
-      <c r="B13" s="6">
-        <v>202111</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>6.08E-2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="F13" s="7">
-        <v>5.9900000000000002E-2</v>
-      </c>
-      <c r="G13" s="7">
-        <v>9.4E-2</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="A13" s="3">
+        <v>307014200</v>
+      </c>
+      <c r="B13" s="4">
+        <v>202112</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6.88E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>307014200</v>
-      </c>
-      <c r="B14" s="6">
-        <v>202112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>6.88E-2</v>
-      </c>
-      <c r="F14" s="7">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="3">
+        <v>356478300</v>
+      </c>
+      <c r="B14" s="4">
+        <v>202201</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>356478300</v>
-      </c>
-      <c r="B15" s="6">
-        <v>202201</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.13170000000000001</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A15" s="3">
         <v>330305900</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B15" s="4">
         <v>202202</v>
       </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
         <v>0.10920000000000001</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K000000 Public Content&amp;1#_x000D_</oddHeader>
